--- a/medicine/Enfance/Louis_Sachar/Louis_Sachar.xlsx
+++ b/medicine/Enfance/Louis_Sachar/Louis_Sachar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Sachar, né le 20 mars 1954 à East Meadow, dans l'État de New York est un écrivain américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Sachar est né le 20 mars 1954 à East Meadow dans l'État de New York. À neuf ans, ses parents et lui déménagent à Tustin, dans l'État de Californie. Il y grandit avant de commencer ses études universitaires à Antioch College, dans l'Ohio. À la suite de la mort de son père, il retourne auprès de sa mère pour ensuite reprendre ses études en économie à l'Université de Californie à Berkeley. C'est à ce moment qu'il commence à travailler en tant que professeur assistant à l'école primaire Hillside. C'est son expérience dans cette école qui le pousse à commencer à écrire, en 1976, Histoires bizarres de l'école Zarbi (Sideways Stories From Wayside School), son premier roman.
 Louis Sachar a reçu la médaille Newbery pour son best-seller de 1998, Le Passage (Holes), couronné en France par le prix Sorcières 2001 du meilleur roman adolescent, et l'année suivante par le prix ado-lisant.
@@ -545,27 +559,134 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série École Zarbi
-Histoires bizarres de l'école Zarbi, Bayard Jeunesse, 2003 ((en) Sideways Stories from Wayside School, 1978)
+          <t>Série École Zarbi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Histoires bizarres de l'école Zarbi, Bayard Jeunesse, 2003 ((en) Sideways Stories from Wayside School, 1978)
 L'École Zarbi déménage, Bayard Jeunesse, 2004 ((en) Wayside School is Falling Down, 1989)
 (en) Sideways Arithmetic from Wayside School, 1989
 (en) More Sideways Arithmetic from Wayside School, 1994
-(en) Wayside School Gets a Little Stranger, 1995
-Série Marvin Redpost
-(en) Kidnapped at Birth?, 1992
+(en) Wayside School Gets a Little Stranger, 1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Louis_Sachar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Sachar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Marvin Redpost</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Kidnapped at Birth?, 1992
 (en) Why Pick on Me?, 1993
 (en) Is He A Girl?, 1993
 (en) Alone in His Teacher's House, 1994
 (en) Class President, 1999
 (en) A Flying Birthday Cake?, 1999
 (en) Super Fast Out of Control!, 2000
-(en) A Magic Crystal ?, 2000
-Série Le Passage
-Le Passage, L'École des loisirs, 2000 ((en) Holes, 1998)Adapté au cinéma sous le titre La Morsure du lézard, ce qui a entraîné une réédition du roman avec ce nouveau titre. Médaille Newbery 1999, prix Sorcières 2001 du meilleur roman adolescent, prix ado-lisant 2002
+(en) A Magic Crystal ?, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louis_Sachar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Sachar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Le Passage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Passage, L'École des loisirs, 2000 ((en) Holes, 1998)Adapté au cinéma sous le titre La Morsure du lézard, ce qui a entraîné une réédition du roman avec ce nouveau titre. Médaille Newbery 1999, prix Sorcières 2001 du meilleur roman adolescent, prix ado-lisant 2002
 Manuel de survie de Stanley Yelnats pour le camp du lac vert, L'École des loisirs, 2004 ((en) Stanley Yelnats' Survival Guide to Camp Green Lake, 2003)
-Pas à pas, L'École des loisirs, 2006 ((en) Small Steps, 2006)
-Romans indépendants
-(en) Johnny's in the Basement, 1981
+Pas à pas, L'École des loisirs, 2006 ((en) Small Steps, 2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louis_Sachar</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Sachar</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Johnny's in the Basement, 1981
 Des poissons dans la tête, Bayard Jeunesse, 2008 ((en) Someday Angeline, 1983)
 (en) Sixth Grade Secrets, 1987Publié au Royaume-Uni sous le titre Pig City
 Il y a un garçon dans les toilettes des filles, L'École des loisirs, 2001 ((en) There's a Boy in the Girl's Bathroom, 1987)
@@ -576,31 +697,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Louis_Sachar</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Louis_Sachar</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Young Reader's Choice Award (3 fois primés)
 1999 : médaille Newbery pour Le Passage
